--- a/xlsx/美国科技_intext.xlsx
+++ b/xlsx/美国科技_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
   <si>
     <t>美国科技</t>
   </si>
@@ -29,7 +29,7 @@
     <t>阿波罗11号</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国科技</t>
+    <t>政策_政策_美国_美国科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E5%BC%B9</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%9D%B0%E6%98%8E%C2%B7%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E5%A3%AF</t>
   </si>
   <si>
-    <t>阿姆斯壯</t>
+    <t>阿姆斯壮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%A4%9A%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>帕羅奧多研究中心</t>
+    <t>帕罗奥多研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%B0%84%E5%8D%B0%E8%A1%A8%E6%A9%9F</t>
   </si>
   <si>
-    <t>雷射印表機</t>
+    <t>雷射打印机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%A8%99</t>
   </si>
   <si>
-    <t>游標</t>
+    <t>游标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%95%E7%BD%91</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國醫療系統</t>
+    <t>美国医疗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -791,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -827,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -893,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -935,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1037,15 +1037,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1109,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1199,19 +1196,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -6565,7 +6562,7 @@
         <v>341</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6591,10 +6588,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6620,10 +6617,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6649,10 +6646,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6678,10 +6675,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6707,10 +6704,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6736,10 +6733,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6765,10 +6762,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6794,10 +6791,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6823,10 +6820,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6852,10 +6849,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6881,10 +6878,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6910,10 +6907,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6939,10 +6936,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -6968,10 +6965,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6997,10 +6994,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7026,10 +7023,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7055,10 +7052,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7084,10 +7081,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7113,10 +7110,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7142,10 +7139,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7171,10 +7168,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7200,10 +7197,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7229,10 +7226,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7258,10 +7255,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7287,10 +7284,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7316,10 +7313,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7345,10 +7342,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7374,10 +7371,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7403,10 +7400,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7432,10 +7429,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7461,10 +7458,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7490,10 +7487,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
